--- a/_DOCUMENTS_/PROGRESS.xlsx
+++ b/_DOCUMENTS_/PROGRESS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PROJECT_\RoyalPetz\_DOCUMENTS_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\RoyalPetz\_DOCUMENTS_\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>Penerimaan Piutang</t>
   </si>
@@ -354,10 +354,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
       <c r="D2" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F2" t="s">
@@ -704,6 +704,9 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -813,6 +816,9 @@
       <c r="D20" t="s">
         <v>65</v>
       </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
@@ -907,16 +913,21 @@
       <c r="D31" t="s">
         <v>51</v>
       </c>
+      <c r="E31" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>50</v>
       </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>49</v>
       </c>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
@@ -966,15 +977,15 @@
       <c r="C42" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="3"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="3"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
@@ -1188,8 +1199,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E31:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_DOCUMENTS_/PROGRESS.xlsx
+++ b/_DOCUMENTS_/PROGRESS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\RoyalPetz\_DOCUMENTS_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PROJECT_\RoyalPetz\_DOCUMENTS_\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Penerimaan Piutang</t>
   </si>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,11 +884,17 @@
       <c r="D27" t="s">
         <v>55</v>
       </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>54</v>
       </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
@@ -937,6 +943,9 @@
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">

--- a/_DOCUMENTS_/PROGRESS.xlsx
+++ b/_DOCUMENTS_/PROGRESS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PROJECT_\RoyalPetz\_DOCUMENTS_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\RoyalPetz\_DOCUMENTS_\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
   <si>
     <t>Penerimaan Piutang</t>
   </si>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,6 +811,9 @@
       <c r="D19" t="s">
         <v>66</v>
       </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
@@ -939,6 +942,9 @@
       <c r="D34" t="s">
         <v>48</v>
       </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
@@ -968,6 +974,9 @@
       <c r="D39" t="s">
         <v>44</v>
       </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
@@ -989,17 +998,23 @@
       <c r="D42" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
@@ -1008,6 +1023,9 @@
       <c r="D46" t="s">
         <v>37</v>
       </c>
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
@@ -1208,9 +1226,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D42:D44"/>
     <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E42:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_DOCUMENTS_/PROGRESS.xlsx
+++ b/_DOCUMENTS_/PROGRESS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>Penerimaan Piutang</t>
   </si>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,6 +958,9 @@
       <c r="C36" t="s">
         <v>46</v>
       </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
@@ -1031,49 +1034,67 @@
       <c r="D47" t="s">
         <v>36</v>
       </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>32</v>
       </c>
@@ -1081,7 +1102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>30</v>
       </c>
@@ -1089,12 +1110,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>27</v>
       </c>
@@ -1102,12 +1123,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>24</v>
       </c>
@@ -1115,22 +1136,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>19</v>
       </c>

--- a/_DOCUMENTS_/PROGRESS.xlsx
+++ b/_DOCUMENTS_/PROGRESS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>Penerimaan Piutang</t>
   </si>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,6 +700,9 @@
       <c r="E6" t="s">
         <v>42</v>
       </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">

--- a/_DOCUMENTS_/PROGRESS.xlsx
+++ b/_DOCUMENTS_/PROGRESS.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\RoyalPetz\_DOCUMENTS_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PROJECT_\RoyalPetz\_DOCUMENTS_\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Module Progress" sheetId="1" r:id="rId1"/>
+    <sheet name="Coding Progress" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
   <si>
     <t>Penerimaan Piutang</t>
   </si>
@@ -303,6 +304,27 @@
   </si>
   <si>
     <t>Pengaturan Nomor Rak</t>
+  </si>
+  <si>
+    <t>Master Group</t>
+  </si>
+  <si>
+    <t>Input validation</t>
+  </si>
+  <si>
+    <t>Data Entry Coding</t>
+  </si>
+  <si>
+    <t>Master User</t>
+  </si>
+  <si>
+    <t>DataGrid for browsing</t>
+  </si>
+  <si>
+    <t>partial DONE</t>
+  </si>
+  <si>
+    <t>Change Password</t>
   </si>
 </sst>
 </file>
@@ -641,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -700,9 +722,6 @@
       <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -1257,4 +1276,82 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_DOCUMENTS_/PROGRESS.xlsx
+++ b/_DOCUMENTS_/PROGRESS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PROJECT_\RoyalPetz\_DOCUMENTS_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\RoyalPetz\_DOCUMENTS_\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
   <si>
     <t>Penerimaan Piutang</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Change Password</t>
+  </si>
+  <si>
+    <t>Master Cabang</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C9" sqref="C9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,6 +1354,33 @@
         <v>42</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_DOCUMENTS_/PROGRESS.xlsx
+++ b/_DOCUMENTS_/PROGRESS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
   <si>
     <t>Penerimaan Piutang</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>Master Cabang</t>
+  </si>
+  <si>
+    <t>Pengaturan Group Akses</t>
+  </si>
+  <si>
+    <t>SET ACCESS ON THE MENU</t>
+  </si>
+  <si>
+    <t>SAVE TO DATABASE</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,6 +1390,22 @@
         <v>97</v>
       </c>
     </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_DOCUMENTS_/PROGRESS.xlsx
+++ b/_DOCUMENTS_/PROGRESS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
   <si>
     <t>Penerimaan Piutang</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>SAVE TO DATABASE</t>
+  </si>
+  <si>
+    <t>Master Category</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,6 +1319,9 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
       <c r="D3" t="s">
         <v>94</v>
       </c>
@@ -1404,6 +1410,33 @@
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
